--- a/biology/Zoologie/Acide_méthanoïque/Acide_méthanoïque.xlsx
+++ b/biology/Zoologie/Acide_méthanoïque/Acide_méthanoïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide méthanoïque (appelé aussi acide formique) est le plus simple des acides carboxyliques. Sa formule chimique est CH2O2 ou HCOOH. Sa base conjuguée est l'ion méthanoate (formiate) de formule HCOO−. Il s'agit d'un acide faible qui se présente sous forme de liquide incolore à odeur pénétrante.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le XVe siècle, quelques alchimistes et naturalistes avaient connaissance que certaines fourmis, en particulier du genre Formica[15], produisaient une vapeur acide. La première personne à avoir décrit l'isolement de cette substance (par distillation d'un grand nombre de cadavres de fourmis) est le naturaliste anglais John Ray en 1671. Sa première synthèse fut faite par le chimiste français Gay-Lussac à partir de l'acide hydrocyanique. En 1855, un autre chimiste français, Marcellin Berthelot, développa une méthode de synthèse à partir du monoxyde de carbone, similaire à celle utilisée de nos jours. L'acide formique est présent dans la composition de la majorité des venins de fourmis, qui le projettent ou l'appliquent directement pour percer la cuticule d'autres arthropodes ou repousser d'éventuels prédateurs[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le XVe siècle, quelques alchimistes et naturalistes avaient connaissance que certaines fourmis, en particulier du genre Formica, produisaient une vapeur acide. La première personne à avoir décrit l'isolement de cette substance (par distillation d'un grand nombre de cadavres de fourmis) est le naturaliste anglais John Ray en 1671. Sa première synthèse fut faite par le chimiste français Gay-Lussac à partir de l'acide hydrocyanique. En 1855, un autre chimiste français, Marcellin Berthelot, développa une méthode de synthèse à partir du monoxyde de carbone, similaire à celle utilisée de nos jours. L'acide formique est présent dans la composition de la majorité des venins de fourmis, qui le projettent ou l'appliquent directement pour percer la cuticule d'autres arthropodes ou repousser d'éventuels prédateurs.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriétés réductrices
-Chauffé avec de l'acide sulfurique, l'acide formique se décompose en eau et en monoxyde de carbone, si bien qu'il possède des propriétés réductrices très marquées (réduction des sels d'or, d'argent, de cuivre, etc.). Sous l'action de la seule chaleur, il se décompose vers 160 °C en dihydrogène et en dioxyde de carbone, d'où de nouveau, des propriétés réductrices.
-Acide faible
-Bien qu'il soit plus ionisé que ses homologues supérieurs d'acides carboxyliques, c'est un acide faible, mais malgré cela il est capable de déplacer l'acide nitrique de ses sels. Si l'on ajoute de l'acide formique à un mélange de nitrate de potassium et de brucine, le mélange est instantanément porté au rouge. Il ne donne pas d'anhydride d'acide et donne comme équivalent d'halogénure d'acyle le phosgène COCl2.
+          <t>Propriétés réductrices</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chauffé avec de l'acide sulfurique, l'acide formique se décompose en eau et en monoxyde de carbone, si bien qu'il possède des propriétés réductrices très marquées (réduction des sels d'or, d'argent, de cuivre, etc.). Sous l'action de la seule chaleur, il se décompose vers 160 °C en dihydrogène et en dioxyde de carbone, d'où de nouveau, des propriétés réductrices.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fabrication</t>
+          <t>Chimie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En chauffant en tube scellé de la potasse et du monoxyde de carbone, Berthelot a fait la synthèse de l'acide formique : CO + KOH → H-CO2K, puis, sous pression de 7 atm. et à 170 °C, hydrolyse du formiate de potassium H-CO2K par l'acide sulfurique ; le produit obtenu par distillation sous pression réduite contient 80 à 85 % d'acide formique.
+          <t>Acide faible</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il soit plus ionisé que ses homologues supérieurs d'acides carboxyliques, c'est un acide faible, mais malgré cela il est capable de déplacer l'acide nitrique de ses sels. Si l'on ajoute de l'acide formique à un mélange de nitrate de potassium et de brucine, le mélange est instantanément porté au rouge. Il ne donne pas d'anhydride d'acide et donne comme équivalent d'halogénure d'acyle le phosgène COCl2.
 </t>
         </is>
       </c>
@@ -591,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,22 +629,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide méthanoïque est utilisé dans les industries suivantes : textile (teintures, traitement du cuir), insecticides, laques, solvants, tannage, électroplaquage, fumigènes, alimentation humaine (additif alimentaire E236)[17]. Il sert également à argenter les miroirs, et soigner les verrues.
-Il est aussi utilisé en apiculture comme moyen complémentaire de lutte contre le varroa[18]. Il est également utilisé dans les détartrants (gel wc)[19].
-Traceur biologique
-Lors d'un empoisonnement au méthanol, ce dernier est métabolisé d'abord en méthanal par l'action de l'alcool déshydrogénase, enzyme non spécifique et ayant une meilleure affinité avec l'éthanol, puis en acide formique via l'action de la formaldéhyde déshydrogénase. La dernière étape consiste en la transformation en dioxyde de carbone, étape limitante de l'élimination. Le méthanal étant rapidement transformé, une accumulation de formiate se crée et est à l'origine de la toxicité (acidose métabolique). La mesure des formiates dans les urines permet de détecter un empoisonnement au méthanol.
-Stockage de l'hydrogène
-Une recherche de l’Institut Leibniz de catalyse de Rostock a montré qu'il peut être utilisé pour le stockage de dihydrogène pour alimenter une pile à combustible[20].
-En présence de platine, il est possible de décomposer l'acide formique en dihydrogène et dioxyde de carbone. 
-CH2O2 → H2 + CO2
-En 2006, une équipe de recherche de l’EPFL (Suisse) a présenté l'utilisation de l'acide formique comme solution de stockage de l'hydrogène[21]. Un système catalytique homogène, basé sur une solution aqueuse de catalyseurs au ruthénium décompose l'acide formique HCOOH en dihydrogène H2 et dioxyde de carbone CO2 [22]. Le dihydrogène peut être ainsi produit dans une large plage de pression (1 – 600 bars) et la réaction ne génère pas de monoxyde de carbone. Ce système catalytique résout les problèmes des catalyseurs existants pour la décomposition de l'acide formique (faible stabilité, durée de vie des catalyseurs limitée, formation de monoxyde de carbone) et viabilise cette méthode de stockage d'hydrogène[23].
-Le coproduit de cette décomposition, le dioxyde de carbone, peut être utilisé dans un deuxième temps pour générer à nouveau de l’acide formique par hydrogénation. L'hydrogénation catalytique du CO2 a été longuement étudiée et des méthodes efficaces ont été développées[24],[25].
-L'acide formique contient 53 g·l-1 d'hydrogène à température et pression ambiante, ce qui est deux fois la capacité de l’hydrogène comprimé à 350 bars. Pur, l'acide formique est un liquide inflammable dont le point d'éclair vaut +69 °C, ce qui est supérieur à l’essence (−40 °C) ou à l'éthanol (+13 °C). Dilué dès 85 %, il n'est plus inflammable. L'acide formique dilué est même inscrit sur la liste des additifs alimentaires de l'administration américaine des denrées alimentaires et des médicaments (FDA)[26].
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En chauffant en tube scellé de la potasse et du monoxyde de carbone, Berthelot a fait la synthèse de l'acide formique : CO + KOH → H-CO2K, puis, sous pression de 7 atm. et à 170 °C, hydrolyse du formiate de potassium H-CO2K par l'acide sulfurique ; le produit obtenu par distillation sous pression réduite contient 80 à 85 % d'acide formique.
 </t>
         </is>
       </c>
@@ -632,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,12 +662,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Commerce</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France est importatrice nette d'acide formique, d'après les douanes françaises. Le prix moyen de la tonne importée était de 600 €[27].
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide méthanoïque est utilisé dans les industries suivantes : textile (teintures, traitement du cuir), insecticides, laques, solvants, tannage, électroplaquage, fumigènes, alimentation humaine (additif alimentaire E236). Il sert également à argenter les miroirs, et soigner les verrues.
+Il est aussi utilisé en apiculture comme moyen complémentaire de lutte contre le varroa. Il est également utilisé dans les détartrants (gel wc).
 </t>
         </is>
       </c>
@@ -663,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thano%C3%AFque</t>
+          <t>Acide_méthanoïque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,12 +696,126 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traceur biologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'un empoisonnement au méthanol, ce dernier est métabolisé d'abord en méthanal par l'action de l'alcool déshydrogénase, enzyme non spécifique et ayant une meilleure affinité avec l'éthanol, puis en acide formique via l'action de la formaldéhyde déshydrogénase. La dernière étape consiste en la transformation en dioxyde de carbone, étape limitante de l'élimination. Le méthanal étant rapidement transformé, une accumulation de formiate se crée et est à l'origine de la toxicité (acidose métabolique). La mesure des formiates dans les urines permet de détecter un empoisonnement au méthanol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acide_méthanoïque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thano%C3%AFque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Stockage de l'hydrogène</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une recherche de l’Institut Leibniz de catalyse de Rostock a montré qu'il peut être utilisé pour le stockage de dihydrogène pour alimenter une pile à combustible.
+En présence de platine, il est possible de décomposer l'acide formique en dihydrogène et dioxyde de carbone. 
+CH2O2 → H2 + CO2
+En 2006, une équipe de recherche de l’EPFL (Suisse) a présenté l'utilisation de l'acide formique comme solution de stockage de l'hydrogène. Un système catalytique homogène, basé sur une solution aqueuse de catalyseurs au ruthénium décompose l'acide formique HCOOH en dihydrogène H2 et dioxyde de carbone CO2 . Le dihydrogène peut être ainsi produit dans une large plage de pression (1 – 600 bars) et la réaction ne génère pas de monoxyde de carbone. Ce système catalytique résout les problèmes des catalyseurs existants pour la décomposition de l'acide formique (faible stabilité, durée de vie des catalyseurs limitée, formation de monoxyde de carbone) et viabilise cette méthode de stockage d'hydrogène.
+Le coproduit de cette décomposition, le dioxyde de carbone, peut être utilisé dans un deuxième temps pour générer à nouveau de l’acide formique par hydrogénation. L'hydrogénation catalytique du CO2 a été longuement étudiée et des méthodes efficaces ont été développées,.
+L'acide formique contient 53 g·l-1 d'hydrogène à température et pression ambiante, ce qui est deux fois la capacité de l’hydrogène comprimé à 350 bars. Pur, l'acide formique est un liquide inflammable dont le point d'éclair vaut +69 °C, ce qui est supérieur à l’essence (−40 °C) ou à l'éthanol (+13 °C). Dilué dès 85 %, il n'est plus inflammable. L'acide formique dilué est même inscrit sur la liste des additifs alimentaires de l'administration américaine des denrées alimentaires et des médicaments (FDA).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acide_méthanoïque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thano%C3%AFque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France est importatrice nette d'acide formique, d'après les douanes françaises. Le prix moyen de la tonne importée était de 600 €.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acide_méthanoïque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thano%C3%AFque</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Détection en dehors du système solaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, de l'acide méthanoïque a été détecté par le radiotélescope ALMA dans le disque protoplanétaire de l'étoile TW Hydrae[28].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, de l'acide méthanoïque a été détecté par le radiotélescope ALMA dans le disque protoplanétaire de l'étoile TW Hydrae.
 </t>
         </is>
       </c>
